--- a/Género/Violencia contra Mujer/VIF por sexo y región.xlsx
+++ b/Género/Violencia contra Mujer/VIF por sexo y región.xlsx
@@ -5,29 +5,20 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c4ab6b8efdf5476a/Escritorio/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gustavo Arancibia\Dropbox\Diseño DATA's (1)\Tablas Madre\Género\Violencia contra Mujer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="109" documentId="8_{F5F16C05-0D80-47E1-AC66-7C365495A26B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{69B7FC79-D027-4FE3-A13E-F47513DA1FBD}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{074E1D56-7E8C-4567-83AB-BA6447A149D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{651742DF-0782-4BA9-8C2B-A67B8687ABC5}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{651742DF-0782-4BA9-8C2B-A67B8687ABC5}"/>
   </bookViews>
   <sheets>
     <sheet name="VIF" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -147,7 +138,7 @@
     <t>Cuarto trimestre 2020</t>
   </si>
   <si>
-    <t>_</t>
+    <t>Código_Región</t>
   </si>
 </sst>
 </file>
@@ -219,7 +210,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{579DF9EE-6644-4A68-9539-5E8C599D0515}" name="VIF_trimestre" displayName="VIF_trimestre" ref="A1:H666" totalsRowShown="0">
   <autoFilter ref="A1:H666" xr:uid="{579DF9EE-6644-4A68-9539-5E8C599D0515}"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{3E370808-E0E7-46D2-B888-7A7EFE0464A2}" name="_"/>
+    <tableColumn id="1" xr3:uid="{3E370808-E0E7-46D2-B888-7A7EFE0464A2}" name="Código_Región"/>
     <tableColumn id="2" xr3:uid="{F4F9617E-C703-4C42-9F9A-4FE9ABEB9B1B}" name="Región"/>
     <tableColumn id="3" xr3:uid="{E5D1A79F-297A-47D5-9681-25DAF8F411D1}" name="Cod_Sector"/>
     <tableColumn id="4" xr3:uid="{F11072FC-01D6-4D68-9C11-B5F5E02CF9EF}" name="Región/Sector"/>
@@ -532,7 +523,7 @@
   <dimension ref="A1:H666"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
